--- a/public/plugin/xls/Surat Keterangan Kelahiran.xlsx
+++ b/public/plugin/xls/Surat Keterangan Kelahiran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F159A604-51A4-41AE-AA92-9F544AFFA874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80F8C16-B34F-4B4F-A2B1-AE00C884592F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -247,19 +247,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,13 +273,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50:I50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -671,75 +671,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="3"/>
@@ -748,16 +748,16 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
@@ -766,10 +766,10 @@
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
@@ -778,10 +778,10 @@
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
@@ -790,10 +790,10 @@
       <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -803,10 +803,10 @@
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,10 +825,10 @@
         <v>7</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
@@ -838,10 +838,10 @@
         <v>7</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
@@ -852,10 +852,10 @@
         <v>7</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
@@ -878,10 +878,10 @@
         <v>7</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
@@ -891,10 +891,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
@@ -905,10 +905,10 @@
         <v>7</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
@@ -935,10 +935,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
@@ -1019,16 +1019,16 @@
       <c r="I35" s="5"/>
     </row>
     <row r="38" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
@@ -1037,10 +1037,10 @@
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
@@ -1049,68 +1049,75 @@
       <c r="D40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="42" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" spans="7:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A7:I7"/>
+  <mergeCells count="32">
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
     <mergeCell ref="G51:I51"/>
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="G52:I52"/>
@@ -1122,6 +1129,22 @@
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="G50:I50"/>
     <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F17:I17"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.62992125984251968" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
